--- a/eval/retrievalFusionMAP.xlsx
+++ b/eval/retrievalFusionMAP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna Bonaldo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna Bonaldo\Documents\GitHub\IRCondorcetFuse\eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="500" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="500" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="run_noSM_noSW" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="runBaisicGRAFICO" sheetId="10" r:id="rId6"/>
     <sheet name="run_noSWGRAFICO" sheetId="11" r:id="rId7"/>
     <sheet name="run_noSTGRAFICO" sheetId="12" r:id="rId8"/>
-    <sheet name="10_models" sheetId="5" r:id="rId9"/>
+    <sheet name="Grafici" sheetId="13" r:id="rId9"/>
+    <sheet name="10_models" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -352,13 +353,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -370,20 +376,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -753,11 +754,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="419986576"/>
-        <c:axId val="419981088"/>
+        <c:axId val="420088800"/>
+        <c:axId val="420090760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="419986576"/>
+        <c:axId val="420088800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,7 +857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419981088"/>
+        <c:crossAx val="420090760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -864,7 +865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="419981088"/>
+        <c:axId val="420090760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419986576"/>
+        <c:crossAx val="420088800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1077,7 +1078,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1090,14 +1091,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1"/>
-              <a:t>Run Basic (with STEMMER</a:t>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
+              <a:t>Run Basic (with STEMMER and STOPLIST)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
-              <a:t> and STOPLIST)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1800" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1115,7 +1111,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1140,7 +1136,7 @@
           <c:yMode val="edge"/>
           <c:x val="9.0370506855373345E-2"/>
           <c:y val="8.1338925939133985E-2"/>
-          <c:w val="0.75433842545820196"/>
+          <c:w val="0.72976395826511575"/>
           <c:h val="0.78766175798940152"/>
         </c:manualLayout>
       </c:layout>
@@ -1410,11 +1406,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="419993240"/>
-        <c:axId val="419993632"/>
+        <c:axId val="420088408"/>
+        <c:axId val="421703520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="419993240"/>
+        <c:axId val="420088408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1423,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1460,7 +1456,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1498,7 +1494,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1513,7 +1509,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419993632"/>
+        <c:crossAx val="421703520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1521,7 +1517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="419993632"/>
+        <c:axId val="421703520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,7 +1544,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1562,11 +1558,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>MAP</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> increment</a:t>
+                  <a:t>MAP increment</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1585,7 +1577,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1617,7 +1609,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1632,7 +1624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419993240"/>
+        <c:crossAx val="420088408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1650,9 +1642,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.85290042137793742"/>
+          <c:x val="0.82696070600745741"/>
           <c:y val="0.30665254685173893"/>
-          <c:w val="0.13890808955770043"/>
+          <c:w val="0.16484780492818041"/>
           <c:h val="0.28543973114397175"/>
         </c:manualLayout>
       </c:layout>
@@ -1669,7 +1661,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1709,7 +1701,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200" baseline="0"/>
+        <a:defRPr sz="1500" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1738,7 +1730,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1751,7 +1743,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="en-US"/>
               <a:t>Run without STOPLIST</a:t>
             </a:r>
           </a:p>
@@ -1771,7 +1763,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1796,7 +1788,7 @@
           <c:yMode val="edge"/>
           <c:x val="7.4725837741006607E-2"/>
           <c:y val="1.6727765819181412E-2"/>
-          <c:w val="0.72314615959987694"/>
+          <c:w val="0.68764970698764105"/>
           <c:h val="0.86742554086168411"/>
         </c:manualLayout>
       </c:layout>
@@ -2066,11 +2058,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="376544712"/>
-        <c:axId val="376542360"/>
+        <c:axId val="421699208"/>
+        <c:axId val="421703912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="376544712"/>
+        <c:axId val="421699208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2075,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2123,7 +2115,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2161,7 +2153,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2176,7 +2168,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376542360"/>
+        <c:crossAx val="421703912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2184,7 +2176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="376542360"/>
+        <c:axId val="421703912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2211,7 +2203,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2224,7 +2216,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="0"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>MAP increment </a:t>
                 </a:r>
               </a:p>
@@ -2244,7 +2236,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2276,7 +2268,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2291,7 +2283,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376544712"/>
+        <c:crossAx val="421699208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2328,7 +2320,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2368,7 +2360,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200" baseline="0"/>
+        <a:defRPr sz="1500" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2725,11 +2717,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="422997560"/>
-        <c:axId val="422989720"/>
+        <c:axId val="421702736"/>
+        <c:axId val="421704304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="422997560"/>
+        <c:axId val="421702736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2833,7 +2825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422989720"/>
+        <c:crossAx val="421704304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2841,7 +2833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="422989720"/>
+        <c:axId val="421704304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2953,7 +2945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422997560"/>
+        <c:crossAx val="421702736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3035,6 +3027,2303 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Run without STEMMER</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19552253667365457"/>
+          <c:y val="0.12615823765079937"/>
+          <c:w val="0.7147396994192603"/>
+          <c:h val="0.77681129197982501"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10_models'!$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>from MIN MAP of fusion-input</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10_models'!$C$38:$C$44</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>CombANZ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CombMAX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CombMED</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CombMIN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CombMNZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CombSUM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CondFuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10_models'!$E$38:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-8.1274145178950874E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18501452132932009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.2892836434340931E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1631147886090881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8084451482428904E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16325133641000711</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3897646986847895E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10_models'!$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>from MEAN MAP fusion-input</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10_models'!$C$38:$C$44</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>CombANZ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CombMAX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CombMED</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CombMIN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CombMNZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CombSUM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CondFuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10_models'!$G$38:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-1.7126527306446288E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19401363411787129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8288396431985293E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1721139013976393</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0853386938777037E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17225044919855831</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8985341982966946E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10_models'!$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>from MAX MAP of fusion-input</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10_models'!$C$38:$C$44</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>CombANZ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CombMAX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CombMED</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CombMIN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CombMNZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CombSUM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CondFuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10_models'!$F$38:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-2.2929991660763094E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19981709847218809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4091860786302099E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1779173657519561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2818743395608974E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17805391355287511</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.0493015602011173E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="501792904"/>
+        <c:axId val="501799176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="501792904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501799176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="501799176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MAP increment</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501792904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1500" baseline="0">
+          <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Run without STOPLIST</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10728937176868868"/>
+          <c:y val="0.12039282589589864"/>
+          <c:w val="0.66655953148205227"/>
+          <c:h val="0.75869506303700496"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10_models'!$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>from MIN MAP of fusion-input</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10_models'!$C$31:$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>CombANZ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CombMAX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CombMED</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CombMIN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CombMNZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CombSUM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CondFuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10_models'!$E$31:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.13940557161182204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1057131777782946E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14188276997297405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8971663309349527E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18990184957017606</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9959544329019316E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18967932070401708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10_models'!$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>from MEAN MAP fusion-input</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10_models'!$C$31:$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>CombANZ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CombMAX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CombMED</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CombMIN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CombMNZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CombSUM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CondFuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10_models'!$G$31:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.14840468440037324</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2058018989231746E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15088188276152525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.1019464576162474E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19890096235872726</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.0031583556492685E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19867843349256828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10_models'!$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>from MAX MAP of fusion-input</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10_models'!$C$31:$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>CombANZ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CombMAX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CombMED</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CombMIN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CombMNZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CombSUM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CondFuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10_models'!$F$31:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.15420814875469005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6254554634914939E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15668534711584206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1905410811933054E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20470442671304406</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1806622709966075E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20448189784688509</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="501800352"/>
+        <c:axId val="501796040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="501800352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501796040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="501796040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501800352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1500" baseline="0">
+          <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Run Basic (with STEMMER and STOPLIST)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20640337945148843"/>
+          <c:y val="1.4636795091783736E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19139887198250588"/>
+          <c:y val="0.10730565939102864"/>
+          <c:w val="0.72703346191032847"/>
+          <c:h val="0.75184335289314319"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10_models'!$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>from MIN MAP of fusion-input</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10_models'!$C$45:$C$51</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>CombANZ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CombMAX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CombMED</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CombMIN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CombMNZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CombSUM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CondFuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10_models'!$E$45:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.17535400320817909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1664968135616904E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1648967831613771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.8644363178171093E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2001426624114761</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.5205318881531045E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1967730228955181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10_models'!$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>from MEAN MAP fusion-input</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10_models'!$C$45:$C$51</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>CombANZ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CombMAX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CombMED</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CombMIN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CombMNZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CombSUM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CondFuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10_models'!$G$45:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.18435311599673029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6658553470657043E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1738958959499283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7863549106368309E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2091417752000273</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.7519644676704305E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2057721356840693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10_models'!$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>from MAX MAP of fusion-input</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10_models'!$C$45:$C$51</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>CombANZ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CombMAX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CombMED</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CombMIN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CombMNZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CombSUM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CondFuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10_models'!$F$45:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1901565803510471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.137609007251102E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1796993603042451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.3667013460685116E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21494523955434411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.3323109031021111E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2115756000383861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="501801528"/>
+        <c:axId val="501801920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="501801528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fusion Methods</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501801920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="501801920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MAP increment</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501801528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1500" baseline="0">
+          <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Run without STEMMER and without STOPLIST</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11641801414567741"/>
+          <c:y val="0.11624670742736626"/>
+          <c:w val="0.6575290578902111"/>
+          <c:h val="0.74158384862909088"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10_models'!$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>from MIN MAP of fusion-input</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10_models'!$C$24:$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>CombANZ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CombMAX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CombMED</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CombMIN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CombMNZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CombSUM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CondFuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10_models'!$E$24:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.2932050741429899E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16763973438902402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3325674783219774E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13682376870495602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3707931387787974E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13692742228466304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.084861588738195E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10_models'!$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>from MEAN MAP fusion-input</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10_models'!$C$24:$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>CombANZ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CombMAX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CombMED</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CombMIN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CombMNZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CombSUM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CondFuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10_models'!$G$24:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-6.7059077144082102E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17663884717757522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6665453102292227E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14582288149350722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4708818599236774E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14592653507321424</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.184950309883075E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10_models'!$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>from MAX MAP of fusion-input</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10_models'!$C$24:$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>CombANZ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CombMAX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CombMED</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CombMIN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CombMNZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CombSUM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CondFuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10_models'!$F$24:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-1.2509372068725017E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18244231153189203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.470009664546029E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15162634584782403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8905354244919967E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15172999942753104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6046038744513944E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="508742336"/>
+        <c:axId val="508743120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="508742336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fusion Methods</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508743120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="508743120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508742336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76888240093583815"/>
+          <c:y val="0.23704923528096555"/>
+          <c:w val="0.2241745062766031"/>
+          <c:h val="0.31471332132753926"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1500" u="none" baseline="0">
+          <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3198,6 +5487,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5210,11 +7659,2023 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5339,7 +9800,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302338" cy="6073734"/>
+    <xdr:ext cx="9299864" cy="6061364"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1"/>
@@ -5354,6 +9815,99 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="2238375" y="323850"/>
+    <xdr:ext cx="9299864" cy="6061364"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10976264" y="346363"/>
+    <xdr:ext cx="10706100" cy="6073734"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="2244436" y="6390408"/>
+    <xdr:ext cx="9302338" cy="6840683"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="10979727" y="6383481"/>
+    <xdr:ext cx="10737273" cy="6847609"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6358,9 +10912,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E73:F73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W75" sqref="W75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>0.5</v>
+      </c>
+      <c r="F73">
+        <v>2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -6457,7 +11035,7 @@
       <c r="F3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="20" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -6709,16 +11287,16 @@
       <c r="G23">
         <v>0.1822625926873592</v>
       </c>
-      <c r="J23" s="30"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="28" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="17">
         <v>0.17555668497295099</v>
       </c>
       <c r="E24" s="6">
@@ -6733,14 +11311,14 @@
         <f>D24-G23</f>
         <v>-6.7059077144082102E-3</v>
       </c>
-      <c r="J24" s="30"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="18">
         <v>0.16993293946316701</v>
       </c>
       <c r="E25" s="7">
@@ -6757,11 +11335,11 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="18">
         <v>0.174972301867346</v>
       </c>
       <c r="E26" s="7">
@@ -6778,11 +11356,11 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="18">
         <v>0.144156336183278</v>
       </c>
       <c r="E27" s="7">
@@ -6799,11 +11377,11 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="18"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="18">
         <v>0.180531700092744</v>
       </c>
       <c r="E28" s="7">
@@ -6820,15 +11398,15 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="18">
         <v>0.18063535367245101</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" ref="E25:E51" si="2">D29-E28</f>
+        <f t="shared" ref="E29:E51" si="2">D29-E28</f>
         <v>0.13692742228466304</v>
       </c>
       <c r="F29" s="5">
@@ -6841,11 +11419,11 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="19"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="19">
         <v>0.17777603817204499</v>
       </c>
       <c r="E30" s="8">
@@ -6862,13 +11440,13 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="17">
         <v>0.18025418749920399</v>
       </c>
       <c r="E31" s="6">
@@ -6885,11 +11463,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="21"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="18">
         <v>0.18046270338960499</v>
       </c>
       <c r="E32" s="7">
@@ -6906,11 +11484,11 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="21"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="18">
         <v>0.182939901750757</v>
       </c>
       <c r="E33" s="7">
@@ -6927,11 +11505,11 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="21"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="18">
         <v>0.14477993630390901</v>
       </c>
       <c r="E34" s="7">
@@ -6948,11 +11526,11 @@
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="21"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="18">
         <v>0.19279901590111101</v>
       </c>
       <c r="E35" s="7">
@@ -6969,11 +11547,11 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="21"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="18">
         <v>0.19289780400307799</v>
       </c>
       <c r="E36" s="7">
@@ -6990,11 +11568,11 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="28">
+      <c r="D37" s="19">
         <v>0.19267527513691901</v>
       </c>
       <c r="E37" s="8">
@@ -7011,13 +11589,13 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="17">
         <v>0.18155190618612199</v>
       </c>
       <c r="E38" s="6">
@@ -7034,11 +11612,11 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="18">
         <v>0.176887106811425</v>
       </c>
       <c r="E39" s="7">
@@ -7055,11 +11633,11 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="21"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="18">
         <v>0.17572523768588599</v>
       </c>
       <c r="E40" s="7">
@@ -7076,11 +11654,11 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="18">
         <v>0.153825504965654</v>
       </c>
       <c r="E41" s="7">
@@ -7097,11 +11675,11 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42" s="18">
         <v>0.181199240091517</v>
       </c>
       <c r="E42" s="7">
@@ -7118,11 +11696,11 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="27">
+      <c r="D43" s="18">
         <v>0.18133578789243601</v>
       </c>
       <c r="E43" s="7">
@@ -7139,11 +11717,11 @@
       </c>
     </row>
     <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="28">
+      <c r="D44" s="19">
         <v>0.177148983396855</v>
       </c>
       <c r="E44" s="7">
@@ -7160,13 +11738,13 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="26">
+      <c r="D45" s="17">
         <v>0.18925165019502699</v>
       </c>
       <c r="E45" s="6">
@@ -7183,11 +11761,11 @@
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="24"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="18">
         <v>0.187018971343796</v>
       </c>
       <c r="E46" s="7">
@@ -7204,11 +11782,11 @@
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="24"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="27">
+      <c r="D47" s="18">
         <v>0.176561751296994</v>
       </c>
       <c r="E47" s="7">
@@ -7225,11 +11803,11 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="24"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48" s="18">
         <v>0.15603234684355999</v>
       </c>
       <c r="E48" s="7">
@@ -7246,11 +11824,11 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="24"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="27">
+      <c r="D49" s="18">
         <v>0.19127822609365899</v>
       </c>
       <c r="E49" s="7">
@@ -7267,11 +11845,11 @@
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="24"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="18">
         <v>0.191622130523323</v>
       </c>
       <c r="E50" s="7">
@@ -7288,11 +11866,11 @@
       </c>
     </row>
     <row r="51" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="25"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="28">
+      <c r="D51" s="19">
         <v>0.18825249100736499</v>
       </c>
       <c r="E51" s="8">

--- a/eval/retrievalFusionMAP.xlsx
+++ b/eval/retrievalFusionMAP.xlsx
@@ -9,49 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="500" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="run_noSM_noSW" sheetId="1" r:id="rId1"/>
-    <sheet name="run_noSW" sheetId="2" r:id="rId2"/>
-    <sheet name="run_noSM" sheetId="3" r:id="rId3"/>
-    <sheet name="runBasic" sheetId="4" r:id="rId4"/>
-    <sheet name="run_noSM_noSWGRAFICO" sheetId="7" r:id="rId5"/>
-    <sheet name="runBaisicGRAFICO" sheetId="10" r:id="rId6"/>
-    <sheet name="run_noSWGRAFICO" sheetId="11" r:id="rId7"/>
-    <sheet name="run_noSTGRAFICO" sheetId="12" r:id="rId8"/>
-    <sheet name="Grafici" sheetId="13" r:id="rId9"/>
-    <sheet name="10_models" sheetId="5" r:id="rId10"/>
+    <sheet name="run_noSM_noSWGRAFICO" sheetId="7" r:id="rId1"/>
+    <sheet name="runBaisicGRAFICO" sheetId="10" r:id="rId2"/>
+    <sheet name="run_noSWGRAFICO" sheetId="11" r:id="rId3"/>
+    <sheet name="run_noSTGRAFICO" sheetId="12" r:id="rId4"/>
+    <sheet name="Grafici" sheetId="13" r:id="rId5"/>
+    <sheet name="10_models" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="37">
-  <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>system_N2</t>
-  </si>
-  <si>
-    <t>system_N4</t>
-  </si>
-  <si>
-    <t>system_N6</t>
-  </si>
-  <si>
-    <t>system_N8</t>
-  </si>
-  <si>
-    <t>system_N10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>CombANZ</t>
   </si>
@@ -89,24 +62,6 @@
     <t>TF_IDF</t>
   </si>
   <si>
-    <t>meanAP</t>
-  </si>
-  <si>
-    <t>BB2c10</t>
-  </si>
-  <si>
-    <t>BM25b075</t>
-  </si>
-  <si>
-    <t>Hiemstra_LM015</t>
-  </si>
-  <si>
-    <t>IFB2c10</t>
-  </si>
-  <si>
-    <t>InL2c10</t>
-  </si>
-  <si>
     <t>MIN MAP</t>
   </si>
   <si>
@@ -114,15 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">MEAN MAP </t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEAN </t>
   </si>
   <si>
     <t>run_noSM_noSW</t>
@@ -137,13 +83,28 @@
     <t>run_noSM</t>
   </si>
   <si>
-    <t>from MIN MAP of fusion-input</t>
+    <t>matters_InL2c10</t>
   </si>
   <si>
-    <t>from MAX MAP of fusion-input</t>
+    <t>matters_IFB2c10</t>
   </si>
   <si>
-    <t>from MEAN MAP fusion-input</t>
+    <t>matters_Hiemstra_LM015</t>
+  </si>
+  <si>
+    <t>matters_BM25b075</t>
+  </si>
+  <si>
+    <t>matters_BB2c10</t>
+  </si>
+  <si>
+    <t>increment from MAX  MAP of fused</t>
+  </si>
+  <si>
+    <t>increment from MEAN MAP of fused</t>
+  </si>
+  <si>
+    <t>increment from MIN MAP of fused</t>
   </si>
 </sst>
 </file>
@@ -206,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -331,11 +292,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -346,7 +455,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -385,6 +493,28 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -494,11 +624,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$E$22</c:f>
+              <c:f>'10_models'!$F$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MIN MAP of fusion-input</c:v>
+                  <c:v>increment from MIN MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -515,7 +645,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$24:$C$30</c:f>
+              <c:f>'10_models'!$D$22:$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -544,30 +674,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$E$24:$E$30</c:f>
+              <c:f>'10_models'!$F$22:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.2932050741429899E-3</c:v>
+                  <c:v>9.8163118552430095E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16763973438902402</c:v>
+                  <c:v>0.16965062564953798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3325674783219774E-3</c:v>
+                  <c:v>1.1797106192039025E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13682376870495602</c:v>
+                  <c:v>0.13607461197183199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3707931387787974E-2</c:v>
+                  <c:v>4.546635327256901E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13692742228466304</c:v>
+                  <c:v>0.13618581891825599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.084861588738195E-2</c:v>
+                  <c:v>4.1270214401302019E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,11 +708,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$G$22</c:f>
+              <c:f>'10_models'!$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MEAN MAP fusion-input</c:v>
+                  <c:v>increment from MEAN MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -602,7 +732,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$24:$C$30</c:f>
+              <c:f>'10_models'!$D$22:$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -631,30 +761,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$G$24:$G$30</c:f>
+              <c:f>'10_models'!$H$22:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-6.7059077144082102E-3</c:v>
+                  <c:v>1.0830739769663866E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17663884717757522</c:v>
+                  <c:v>0.1783838635278146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.6665453102292227E-3</c:v>
+                  <c:v>3.0638683137624023E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14582288149350722</c:v>
+                  <c:v>0.14480784985010861</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4708818599236774E-2</c:v>
+                  <c:v>3.6733115394292387E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14592653507321424</c:v>
+                  <c:v>0.14491905679653261</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.184950309883075E-2</c:v>
+                  <c:v>3.2536976523025396E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -665,11 +795,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$F$22</c:f>
+              <c:f>'10_models'!$G$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MAX MAP of fusion-input</c:v>
+                  <c:v>increment from MAX  MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -686,7 +816,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$24:$C$30</c:f>
+              <c:f>'10_models'!$D$22:$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -715,30 +845,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$F$24:$F$30</c:f>
+              <c:f>'10_models'!$G$22:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-1.2509372068725017E-2</c:v>
+                  <c:v>-4.8870263566639927E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18244231153189203</c:v>
+                  <c:v>0.18435396386144498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.470009664546029E-3</c:v>
+                  <c:v>-2.906232019867977E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15162634584782403</c:v>
+                  <c:v>0.15077795018373899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8905354244919967E-2</c:v>
+                  <c:v>3.0763015060662008E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15172999942753104</c:v>
+                  <c:v>0.15088915713016299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6046038744513944E-2</c:v>
+                  <c:v>2.6566876189395017E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -754,11 +884,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="420088800"/>
-        <c:axId val="420090760"/>
+        <c:axId val="433583168"/>
+        <c:axId val="433587872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="420088800"/>
+        <c:axId val="433583168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,7 +987,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420090760"/>
+        <c:crossAx val="433587872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -865,7 +995,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="420090760"/>
+        <c:axId val="433587872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +1102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420088800"/>
+        <c:crossAx val="433583168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1149,11 +1279,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$E$22</c:f>
+              <c:f>'10_models'!$F$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MIN MAP of fusion-input</c:v>
+                  <c:v>increment from MIN MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1170,7 +1300,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$45:$C$51</c:f>
+              <c:f>'10_models'!$D$43:$D$49</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1199,30 +1329,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$E$45:$E$51</c:f>
+              <c:f>'10_models'!$F$43:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.17535400320817909</c:v>
+                  <c:v>0.19486389632998802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1664968135616904E-2</c:v>
+                  <c:v>-1.3153595254993017E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1648967831613771</c:v>
+                  <c:v>0.19714245758344801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.8644363178171093E-3</c:v>
+                  <c:v>-4.5615196522897E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2001426624114761</c:v>
+                  <c:v>0.23577520040123601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.5205318881531045E-3</c:v>
+                  <c:v>-4.4890808905801993E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1967730228955181</c:v>
+                  <c:v>0.23314329991316698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1233,11 +1363,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$G$22</c:f>
+              <c:f>'10_models'!$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MEAN MAP fusion-input</c:v>
+                  <c:v>increment from MEAN MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1254,7 +1384,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$45:$C$51</c:f>
+              <c:f>'10_models'!$D$43:$D$49</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1283,30 +1413,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$G$45:$G$51</c:f>
+              <c:f>'10_models'!$H$43:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.18435311599673029</c:v>
+                  <c:v>0.20359713420826464</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6658553470657043E-3</c:v>
+                  <c:v>-2.188683313326964E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1738958959499283</c:v>
+                  <c:v>0.20587569546172463</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.7863549106368309E-2</c:v>
+                  <c:v>-5.4348434401173623E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2091417752000273</c:v>
+                  <c:v>0.24450843827951263</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.7519644676704305E-2</c:v>
+                  <c:v>-5.3624046784078616E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2057721356840693</c:v>
+                  <c:v>0.24187653779144361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1317,11 +1447,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$F$22</c:f>
+              <c:f>'10_models'!$G$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MAX MAP of fusion-input</c:v>
+                  <c:v>increment from MAX  MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1338,7 +1468,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$45:$C$51</c:f>
+              <c:f>'10_models'!$D$43:$D$49</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1367,30 +1497,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$F$45:$F$51</c:f>
+              <c:f>'10_models'!$G$43:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.1901565803510471</c:v>
+                  <c:v>0.20956723454189502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.137609007251102E-3</c:v>
+                  <c:v>-2.7856933466900019E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1796993603042451</c:v>
+                  <c:v>0.21184579579535501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.3667013460685116E-2</c:v>
+                  <c:v>-6.0318534734804002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21494523955434411</c:v>
+                  <c:v>0.25047853861314301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.3323109031021111E-2</c:v>
+                  <c:v>-5.9594147117708995E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2115756000383861</c:v>
+                  <c:v>0.24784663812507399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1406,11 +1536,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="420088408"/>
-        <c:axId val="421703520"/>
+        <c:axId val="433585520"/>
+        <c:axId val="433583560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="420088408"/>
+        <c:axId val="433585520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,7 +1639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421703520"/>
+        <c:crossAx val="433583560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1517,7 +1647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421703520"/>
+        <c:axId val="433583560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1624,7 +1754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420088408"/>
+        <c:crossAx val="433585520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1801,11 +1931,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$E$22</c:f>
+              <c:f>'10_models'!$F$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MIN MAP of fusion-input</c:v>
+                  <c:v>increment from MIN MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1822,7 +1952,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$31:$C$37</c:f>
+              <c:f>'10_models'!$D$29:$D$35</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1851,30 +1981,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$E$31:$E$37</c:f>
+              <c:f>'10_models'!$F$29:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13940557161182204</c:v>
+                  <c:v>0.14721489330327298</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1057131777782946E-2</c:v>
+                  <c:v>3.5664087160638014E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14188276997297405</c:v>
+                  <c:v>0.136760958694155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8971663309349527E-3</c:v>
+                  <c:v>-7.6603160444289886E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18990184957017606</c:v>
+                  <c:v>0.200829442446119</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9959544329019316E-3</c:v>
+                  <c:v>-7.541985065017992E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18967932070401708</c:v>
+                  <c:v>0.19993444103328301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1885,11 +2015,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$G$22</c:f>
+              <c:f>'10_models'!$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MEAN MAP fusion-input</c:v>
+                  <c:v>increment from MEAN MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1906,7 +2036,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$31:$C$37</c:f>
+              <c:f>'10_models'!$D$29:$D$35</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1935,30 +2065,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$G$31:$G$37</c:f>
+              <c:f>'10_models'!$H$29:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.14840468440037324</c:v>
+                  <c:v>0.1559481311815496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2058018989231746E-2</c:v>
+                  <c:v>2.6930849282361391E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15088188276152525</c:v>
+                  <c:v>0.14549419657243162</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.1019464576162474E-3</c:v>
+                  <c:v>-1.6393553922705612E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19890096235872726</c:v>
+                  <c:v>0.20956268032439562</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.0031583556492685E-3</c:v>
+                  <c:v>-1.6275222943294615E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19867843349256828</c:v>
+                  <c:v>0.20866767891155963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1969,11 +2099,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$F$22</c:f>
+              <c:f>'10_models'!$G$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MAX MAP of fusion-input</c:v>
+                  <c:v>increment from MAX  MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1990,7 +2120,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$31:$C$37</c:f>
+              <c:f>'10_models'!$D$29:$D$35</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2019,30 +2149,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$F$31:$F$37</c:f>
+              <c:f>'10_models'!$G$29:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.15420814875469005</c:v>
+                  <c:v>0.16191823151517998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6254554634914939E-2</c:v>
+                  <c:v>2.0960748948731012E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15668534711584206</c:v>
+                  <c:v>0.151464296906062</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.1905410811933054E-2</c:v>
+                  <c:v>-2.2363654256335991E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20470442671304406</c:v>
+                  <c:v>0.215532780658026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1806622709966075E-2</c:v>
+                  <c:v>-2.2245323276924994E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20448189784688509</c:v>
+                  <c:v>0.21463777924519001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2058,11 +2188,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="421699208"/>
-        <c:axId val="421703912"/>
+        <c:axId val="433582384"/>
+        <c:axId val="433591008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="421699208"/>
+        <c:axId val="433582384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2168,7 +2298,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421703912"/>
+        <c:crossAx val="433591008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2176,7 +2306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421703912"/>
+        <c:axId val="433591008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,7 +2413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421699208"/>
+        <c:crossAx val="433582384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2460,11 +2590,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$E$22</c:f>
+              <c:f>'10_models'!$F$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MIN MAP of fusion-input</c:v>
+                  <c:v>increment from MIN MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2481,7 +2611,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$38:$C$44</c:f>
+              <c:f>'10_models'!$D$36:$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2510,30 +2640,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$E$38:$E$44</c:f>
+              <c:f>'10_models'!$F$36:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-8.1274145178950874E-3</c:v>
+                  <c:v>-1.5765469950323019E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18501452132932009</c:v>
+                  <c:v>0.19627366209132302</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.2892836434340931E-3</c:v>
+                  <c:v>-1.5921768336526032E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1631147886090881</c:v>
+                  <c:v>0.18272834537768803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8084451482428904E-2</c:v>
+                  <c:v>-5.0479896693203519E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16325133641000711</c:v>
+                  <c:v>0.18289335060152703</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3897646986847895E-2</c:v>
+                  <c:v>-5.7443672046720295E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2544,11 +2674,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$G$22</c:f>
+              <c:f>'10_models'!$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MEAN MAP fusion-input</c:v>
+                  <c:v>increment from MEAN MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2565,7 +2695,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$38:$C$44</c:f>
+              <c:f>'10_models'!$D$36:$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2594,30 +2724,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$G$38:$G$44</c:f>
+              <c:f>'10_models'!$H$36:$H$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-1.7126527306446288E-2</c:v>
+                  <c:v>-2.4498707828599642E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19401363411787129</c:v>
+                  <c:v>0.20500689996959964</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.8288396431985293E-2</c:v>
+                  <c:v>-2.4655006214802655E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1721139013976393</c:v>
+                  <c:v>0.19146158325596466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0853386938777037E-3</c:v>
+                  <c:v>-9.2380368452086581E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17225044919855831</c:v>
+                  <c:v>0.19162658847980366</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8985341982966946E-3</c:v>
+                  <c:v>-1.4477605082948652E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2628,11 +2758,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$F$22</c:f>
+              <c:f>'10_models'!$G$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MAX MAP of fusion-input</c:v>
+                  <c:v>increment from MAX  MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2649,7 +2779,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$38:$C$44</c:f>
+              <c:f>'10_models'!$D$36:$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2678,30 +2808,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$F$38:$F$44</c:f>
+              <c:f>'10_models'!$G$36:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-2.2929991660763094E-2</c:v>
+                  <c:v>-3.0468808162230021E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19981709847218809</c:v>
+                  <c:v>0.21097700030323002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.4091860786302099E-2</c:v>
+                  <c:v>-3.0625106548433034E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1779173657519561</c:v>
+                  <c:v>0.19743168358959504</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2818743395608974E-3</c:v>
+                  <c:v>-1.5208137178839037E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17805391355287511</c:v>
+                  <c:v>0.19759668881343403</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.0493015602011173E-4</c:v>
+                  <c:v>-2.0447705416579032E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2717,11 +2847,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="421702736"/>
-        <c:axId val="421704304"/>
+        <c:axId val="433591792"/>
+        <c:axId val="433581992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="421702736"/>
+        <c:axId val="433591792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2825,7 +2955,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421704304"/>
+        <c:crossAx val="433581992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2833,7 +2963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421704304"/>
+        <c:axId val="433581992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2945,7 +3075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421702736"/>
+        <c:crossAx val="433591792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3122,11 +3252,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$E$22</c:f>
+              <c:f>'10_models'!$F$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MIN MAP of fusion-input</c:v>
+                  <c:v>increment from MIN MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3143,7 +3273,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$38:$C$44</c:f>
+              <c:f>'10_models'!$D$36:$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3172,30 +3302,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$E$38:$E$44</c:f>
+              <c:f>'10_models'!$F$36:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-8.1274145178950874E-3</c:v>
+                  <c:v>-1.5765469950323019E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18501452132932009</c:v>
+                  <c:v>0.19627366209132302</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.2892836434340931E-3</c:v>
+                  <c:v>-1.5921768336526032E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1631147886090881</c:v>
+                  <c:v>0.18272834537768803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8084451482428904E-2</c:v>
+                  <c:v>-5.0479896693203519E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16325133641000711</c:v>
+                  <c:v>0.18289335060152703</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3897646986847895E-2</c:v>
+                  <c:v>-5.7443672046720295E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3206,11 +3336,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$G$22</c:f>
+              <c:f>'10_models'!$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MEAN MAP fusion-input</c:v>
+                  <c:v>increment from MEAN MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3227,7 +3357,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$38:$C$44</c:f>
+              <c:f>'10_models'!$D$36:$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3256,30 +3386,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$G$38:$G$44</c:f>
+              <c:f>'10_models'!$H$36:$H$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-1.7126527306446288E-2</c:v>
+                  <c:v>-2.4498707828599642E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19401363411787129</c:v>
+                  <c:v>0.20500689996959964</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.8288396431985293E-2</c:v>
+                  <c:v>-2.4655006214802655E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1721139013976393</c:v>
+                  <c:v>0.19146158325596466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0853386938777037E-3</c:v>
+                  <c:v>-9.2380368452086581E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17225044919855831</c:v>
+                  <c:v>0.19162658847980366</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8985341982966946E-3</c:v>
+                  <c:v>-1.4477605082948652E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3290,11 +3420,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$F$22</c:f>
+              <c:f>'10_models'!$G$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MAX MAP of fusion-input</c:v>
+                  <c:v>increment from MAX  MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3311,7 +3441,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$38:$C$44</c:f>
+              <c:f>'10_models'!$D$36:$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3340,30 +3470,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$F$38:$F$44</c:f>
+              <c:f>'10_models'!$G$36:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-2.2929991660763094E-2</c:v>
+                  <c:v>-3.0468808162230021E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19981709847218809</c:v>
+                  <c:v>0.21097700030323002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.4091860786302099E-2</c:v>
+                  <c:v>-3.0625106548433034E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1779173657519561</c:v>
+                  <c:v>0.19743168358959504</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2818743395608974E-3</c:v>
+                  <c:v>-1.5208137178839037E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17805391355287511</c:v>
+                  <c:v>0.19759668881343403</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.0493015602011173E-4</c:v>
+                  <c:v>-2.0447705416579032E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3379,11 +3509,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="501792904"/>
-        <c:axId val="501799176"/>
+        <c:axId val="433586696"/>
+        <c:axId val="433584736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="501792904"/>
+        <c:axId val="433586696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3426,7 +3556,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501799176"/>
+        <c:crossAx val="433584736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3434,9 +3564,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501799176"/>
+        <c:axId val="433584736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3526,7 +3657,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3541,7 +3672,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501792904"/>
+        <c:crossAx val="433586696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3684,11 +3815,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$E$22</c:f>
+              <c:f>'10_models'!$F$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MIN MAP of fusion-input</c:v>
+                  <c:v>increment from MIN MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3705,7 +3836,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$31:$C$37</c:f>
+              <c:f>'10_models'!$D$29:$D$35</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3734,30 +3865,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$E$31:$E$37</c:f>
+              <c:f>'10_models'!$F$29:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13940557161182204</c:v>
+                  <c:v>0.14721489330327298</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1057131777782946E-2</c:v>
+                  <c:v>3.5664087160638014E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14188276997297405</c:v>
+                  <c:v>0.136760958694155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8971663309349527E-3</c:v>
+                  <c:v>-7.6603160444289886E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18990184957017606</c:v>
+                  <c:v>0.200829442446119</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9959544329019316E-3</c:v>
+                  <c:v>-7.541985065017992E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18967932070401708</c:v>
+                  <c:v>0.19993444103328301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3768,11 +3899,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$G$22</c:f>
+              <c:f>'10_models'!$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MEAN MAP fusion-input</c:v>
+                  <c:v>increment from MEAN MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3789,7 +3920,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$31:$C$37</c:f>
+              <c:f>'10_models'!$D$29:$D$35</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3818,30 +3949,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$G$31:$G$37</c:f>
+              <c:f>'10_models'!$H$29:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.14840468440037324</c:v>
+                  <c:v>0.1559481311815496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2058018989231746E-2</c:v>
+                  <c:v>2.6930849282361391E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15088188276152525</c:v>
+                  <c:v>0.14549419657243162</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.1019464576162474E-3</c:v>
+                  <c:v>-1.6393553922705612E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19890096235872726</c:v>
+                  <c:v>0.20956268032439562</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.0031583556492685E-3</c:v>
+                  <c:v>-1.6275222943294615E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19867843349256828</c:v>
+                  <c:v>0.20866767891155963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3852,11 +3983,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$F$22</c:f>
+              <c:f>'10_models'!$G$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MAX MAP of fusion-input</c:v>
+                  <c:v>increment from MAX  MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3873,7 +4004,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$31:$C$37</c:f>
+              <c:f>'10_models'!$D$29:$D$35</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3902,30 +4033,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$F$31:$F$37</c:f>
+              <c:f>'10_models'!$G$29:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.15420814875469005</c:v>
+                  <c:v>0.16191823151517998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6254554634914939E-2</c:v>
+                  <c:v>2.0960748948731012E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15668534711584206</c:v>
+                  <c:v>0.151464296906062</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.1905410811933054E-2</c:v>
+                  <c:v>-2.2363654256335991E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20470442671304406</c:v>
+                  <c:v>0.215532780658026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1806622709966075E-2</c:v>
+                  <c:v>-2.2245323276924994E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20448189784688509</c:v>
+                  <c:v>0.21463777924519001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3941,11 +4072,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="501800352"/>
-        <c:axId val="501796040"/>
+        <c:axId val="433590224"/>
+        <c:axId val="433583952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="501800352"/>
+        <c:axId val="433590224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3988,7 +4119,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501796040"/>
+        <c:crossAx val="433583952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3996,9 +4127,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501796040"/>
+        <c:axId val="433583952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4032,7 +4164,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4047,7 +4179,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501800352"/>
+        <c:crossAx val="433590224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4197,11 +4329,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$E$22</c:f>
+              <c:f>'10_models'!$F$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MIN MAP of fusion-input</c:v>
+                  <c:v>increment from MIN MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4218,7 +4350,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$45:$C$51</c:f>
+              <c:f>'10_models'!$D$43:$D$49</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4247,30 +4379,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$E$45:$E$51</c:f>
+              <c:f>'10_models'!$F$43:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.17535400320817909</c:v>
+                  <c:v>0.19486389632998802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1664968135616904E-2</c:v>
+                  <c:v>-1.3153595254993017E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1648967831613771</c:v>
+                  <c:v>0.19714245758344801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.8644363178171093E-3</c:v>
+                  <c:v>-4.5615196522897E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2001426624114761</c:v>
+                  <c:v>0.23577520040123601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.5205318881531045E-3</c:v>
+                  <c:v>-4.4890808905801993E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1967730228955181</c:v>
+                  <c:v>0.23314329991316698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4281,11 +4413,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$G$22</c:f>
+              <c:f>'10_models'!$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MEAN MAP fusion-input</c:v>
+                  <c:v>increment from MEAN MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4302,7 +4434,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$45:$C$51</c:f>
+              <c:f>'10_models'!$D$43:$D$49</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4331,30 +4463,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$G$45:$G$51</c:f>
+              <c:f>'10_models'!$H$43:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.18435311599673029</c:v>
+                  <c:v>0.20359713420826464</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6658553470657043E-3</c:v>
+                  <c:v>-2.188683313326964E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1738958959499283</c:v>
+                  <c:v>0.20587569546172463</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.7863549106368309E-2</c:v>
+                  <c:v>-5.4348434401173623E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2091417752000273</c:v>
+                  <c:v>0.24450843827951263</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.7519644676704305E-2</c:v>
+                  <c:v>-5.3624046784078616E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2057721356840693</c:v>
+                  <c:v>0.24187653779144361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4365,11 +4497,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$F$22</c:f>
+              <c:f>'10_models'!$G$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MAX MAP of fusion-input</c:v>
+                  <c:v>increment from MAX  MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4386,7 +4518,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$45:$C$51</c:f>
+              <c:f>'10_models'!$D$43:$D$49</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4415,30 +4547,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$F$45:$F$51</c:f>
+              <c:f>'10_models'!$G$43:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.1901565803510471</c:v>
+                  <c:v>0.20956723454189502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.137609007251102E-3</c:v>
+                  <c:v>-2.7856933466900019E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1796993603042451</c:v>
+                  <c:v>0.21184579579535501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.3667013460685116E-2</c:v>
+                  <c:v>-6.0318534734804002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21494523955434411</c:v>
+                  <c:v>0.25047853861314301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.3323109031021111E-2</c:v>
+                  <c:v>-5.9594147117708995E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2115756000383861</c:v>
+                  <c:v>0.24784663812507399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4454,11 +4586,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="501801528"/>
-        <c:axId val="501801920"/>
+        <c:axId val="433588656"/>
+        <c:axId val="433581208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="501801528"/>
+        <c:axId val="433588656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4557,7 +4689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501801920"/>
+        <c:crossAx val="433581208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4565,7 +4697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501801920"/>
+        <c:axId val="433581208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4657,7 +4789,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4672,7 +4804,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501801528"/>
+        <c:crossAx val="433588656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4744,7 +4876,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4777,7 +4909,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4815,11 +4947,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$E$22</c:f>
+              <c:f>'10_models'!$F$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MIN MAP of fusion-input</c:v>
+                  <c:v>increment from MIN MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4836,7 +4968,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$24:$C$30</c:f>
+              <c:f>'10_models'!$D$22:$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4865,30 +4997,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$E$24:$E$30</c:f>
+              <c:f>'10_models'!$F$22:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.2932050741429899E-3</c:v>
+                  <c:v>9.8163118552430095E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16763973438902402</c:v>
+                  <c:v>0.16965062564953798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3325674783219774E-3</c:v>
+                  <c:v>1.1797106192039025E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13682376870495602</c:v>
+                  <c:v>0.13607461197183199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3707931387787974E-2</c:v>
+                  <c:v>4.546635327256901E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13692742228466304</c:v>
+                  <c:v>0.13618581891825599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.084861588738195E-2</c:v>
+                  <c:v>4.1270214401302019E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4899,11 +5031,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$G$22</c:f>
+              <c:f>'10_models'!$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MEAN MAP fusion-input</c:v>
+                  <c:v>increment from MEAN MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4920,7 +5052,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$24:$C$30</c:f>
+              <c:f>'10_models'!$D$22:$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4949,30 +5081,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$G$24:$G$30</c:f>
+              <c:f>'10_models'!$H$22:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-6.7059077144082102E-3</c:v>
+                  <c:v>1.0830739769663866E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17663884717757522</c:v>
+                  <c:v>0.1783838635278146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.6665453102292227E-3</c:v>
+                  <c:v>3.0638683137624023E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14582288149350722</c:v>
+                  <c:v>0.14480784985010861</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4708818599236774E-2</c:v>
+                  <c:v>3.6733115394292387E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14592653507321424</c:v>
+                  <c:v>0.14491905679653261</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.184950309883075E-2</c:v>
+                  <c:v>3.2536976523025396E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4983,11 +5115,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10_models'!$F$22</c:f>
+              <c:f>'10_models'!$G$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>from MAX MAP of fusion-input</c:v>
+                  <c:v>increment from MAX  MAP of fused</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5004,7 +5136,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10_models'!$C$24:$C$30</c:f>
+              <c:f>'10_models'!$D$22:$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -5033,30 +5165,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10_models'!$F$24:$F$30</c:f>
+              <c:f>'10_models'!$G$22:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-1.2509372068725017E-2</c:v>
+                  <c:v>-4.8870263566639927E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18244231153189203</c:v>
+                  <c:v>0.18435396386144498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.470009664546029E-3</c:v>
+                  <c:v>-2.906232019867977E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15162634584782403</c:v>
+                  <c:v>0.15077795018373899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8905354244919967E-2</c:v>
+                  <c:v>3.0763015060662008E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15172999942753104</c:v>
+                  <c:v>0.15088915713016299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6046038744513944E-2</c:v>
+                  <c:v>2.6566876189395017E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5072,11 +5204,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="508742336"/>
-        <c:axId val="508743120"/>
+        <c:axId val="433589048"/>
+        <c:axId val="433589440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="508742336"/>
+        <c:axId val="433589048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5089,7 +5221,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5122,7 +5254,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5156,11 +5288,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5175,7 +5307,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508743120"/>
+        <c:crossAx val="433589440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5183,10 +5315,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="508743120"/>
+        <c:axId val="433589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.25"/>
+          <c:max val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5220,7 +5352,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5235,7 +5367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508742336"/>
+        <c:crossAx val="433589048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5272,7 +5404,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1500" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5312,7 +5444,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1500" u="none" baseline="0">
+        <a:defRPr sz="1500" u="sng" baseline="0">
           <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
@@ -10179,743 +10311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="1025" width="8.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>0.16594131682768701</v>
-      </c>
-      <c r="C2">
-        <v>0.16760486457707199</v>
-      </c>
-      <c r="D2">
-        <v>0.16987171322584901</v>
-      </c>
-      <c r="E2">
-        <v>0.17404921159381201</v>
-      </c>
-      <c r="F2">
-        <v>0.17555668497295099</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0.16397067478114299</v>
-      </c>
-      <c r="C3">
-        <v>0.16486897421461899</v>
-      </c>
-      <c r="D3">
-        <v>0.16488766711703201</v>
-      </c>
-      <c r="E3">
-        <v>0.16944947969610699</v>
-      </c>
-      <c r="F3">
-        <v>0.16993293946316701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0.17108863990597101</v>
-      </c>
-      <c r="C4">
-        <v>0.16818277427203701</v>
-      </c>
-      <c r="D4">
-        <v>0.16410149918719599</v>
-      </c>
-      <c r="E4">
-        <v>0.168310648320429</v>
-      </c>
-      <c r="F4">
-        <v>0.174972301867346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0.170091737676765</v>
-      </c>
-      <c r="C5">
-        <v>0.13738476107046099</v>
-      </c>
-      <c r="D5">
-        <v>0.15220137590678801</v>
-      </c>
-      <c r="E5">
-        <v>0.137810762406847</v>
-      </c>
-      <c r="F5">
-        <v>0.144156336183278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.17313495798817399</v>
-      </c>
-      <c r="C6">
-        <v>0.174463811805675</v>
-      </c>
-      <c r="D6">
-        <v>0.17435159812169601</v>
-      </c>
-      <c r="E6">
-        <v>0.17800448944365499</v>
-      </c>
-      <c r="F6">
-        <v>0.180531700092744</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0.17288911623328401</v>
-      </c>
-      <c r="C7">
-        <v>0.174169019559031</v>
-      </c>
-      <c r="D7">
-        <v>0.174208427555895</v>
-      </c>
-      <c r="E7">
-        <v>0.17814037191490401</v>
-      </c>
-      <c r="F7">
-        <v>0.18063535367245101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0.165971050315703</v>
-      </c>
-      <c r="C8">
-        <v>0.17332856638512201</v>
-      </c>
-      <c r="D8">
-        <v>0.17335692210482001</v>
-      </c>
-      <c r="E8">
-        <v>0.17569840762317601</v>
-      </c>
-      <c r="F8">
-        <v>0.17777603817204499</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="1025" width="8.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>0.182424059982111</v>
-      </c>
-      <c r="C2">
-        <v>0.177823620270633</v>
-      </c>
-      <c r="D2">
-        <v>0.18029857562622201</v>
-      </c>
-      <c r="E2">
-        <v>0.18085969227816401</v>
-      </c>
-      <c r="F2">
-        <v>0.18025418749920399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0.179558268061356</v>
-      </c>
-      <c r="C3">
-        <v>0.18062889985209399</v>
-      </c>
-      <c r="D3">
-        <v>0.18065254008481901</v>
-      </c>
-      <c r="E3">
-        <v>0.17976579356708799</v>
-      </c>
-      <c r="F3">
-        <v>0.18046270338960499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0.182424059982111</v>
-      </c>
-      <c r="C4">
-        <v>0.17021046223795699</v>
-      </c>
-      <c r="D4">
-        <v>0.16604262249065199</v>
-      </c>
-      <c r="E4">
-        <v>0.182090741164849</v>
-      </c>
-      <c r="F4">
-        <v>0.182939901750757</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0.182189996187757</v>
-      </c>
-      <c r="C5">
-        <v>0.131337293839101</v>
-      </c>
-      <c r="D5">
-        <v>0.146926977529967</v>
-      </c>
-      <c r="E5">
-        <v>0.13784729847319899</v>
-      </c>
-      <c r="F5">
-        <v>0.14477993630390901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.188248344122429</v>
-      </c>
-      <c r="C6">
-        <v>0.18812410710070099</v>
-      </c>
-      <c r="D6">
-        <v>0.18752100959790299</v>
-      </c>
-      <c r="E6">
-        <v>0.19117003156013501</v>
-      </c>
-      <c r="F6">
-        <v>0.19279901590111101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0.187703530053902</v>
-      </c>
-      <c r="C7">
-        <v>0.18760675309362801</v>
-      </c>
-      <c r="D7">
-        <v>0.18769896757903601</v>
-      </c>
-      <c r="E7">
-        <v>0.19130935528863299</v>
-      </c>
-      <c r="F7">
-        <v>0.19289780400307799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0.181344777199791</v>
-      </c>
-      <c r="C8">
-        <v>0.186148483064911</v>
-      </c>
-      <c r="D8">
-        <v>0.18633129430977899</v>
-      </c>
-      <c r="E8">
-        <v>0.190501546796183</v>
-      </c>
-      <c r="F8">
-        <v>0.19267527513691901</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="1025" width="8.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>0.17365169924639001</v>
-      </c>
-      <c r="C2">
-        <v>0.17494948063937599</v>
-      </c>
-      <c r="D2">
-        <v>0.175663999161846</v>
-      </c>
-      <c r="E2">
-        <v>0.178878677099788</v>
-      </c>
-      <c r="F2">
-        <v>0.18155190618612199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0.17159175893812501</v>
-      </c>
-      <c r="C3">
-        <v>0.172447383232461</v>
-      </c>
-      <c r="D3">
-        <v>0.172452243886867</v>
-      </c>
-      <c r="E3">
-        <v>0.17637508386342499</v>
-      </c>
-      <c r="F3">
-        <v>0.176887106811425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0.17365169924639001</v>
-      </c>
-      <c r="C4">
-        <v>0.17127104510656199</v>
-      </c>
-      <c r="D4">
-        <v>0.175651734458389</v>
-      </c>
-      <c r="E4">
-        <v>0.175791555850774</v>
-      </c>
-      <c r="F4">
-        <v>0.17572523768588599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0.17370419824192801</v>
-      </c>
-      <c r="C5">
-        <v>0.14981564659607199</v>
-      </c>
-      <c r="D5">
-        <v>0.16282675021681201</v>
-      </c>
-      <c r="E5">
-        <v>0.14777154219597399</v>
-      </c>
-      <c r="F5">
-        <v>0.153825504965654</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.17375502429060699</v>
-      </c>
-      <c r="C6">
-        <v>0.175063253071227</v>
-      </c>
-      <c r="D6">
-        <v>0.174738053017613</v>
-      </c>
-      <c r="E6">
-        <v>0.17778102037318899</v>
-      </c>
-      <c r="F6">
-        <v>0.181199240091517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0.17375502429060699</v>
-      </c>
-      <c r="C7">
-        <v>0.17514571623964101</v>
-      </c>
-      <c r="D7">
-        <v>0.17493827327730299</v>
-      </c>
-      <c r="E7">
-        <v>0.177956668465831</v>
-      </c>
-      <c r="F7">
-        <v>0.18133578789243601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0.171604645042892</v>
-      </c>
-      <c r="C8">
-        <v>0.17575205863611701</v>
-      </c>
-      <c r="D8">
-        <v>0.175791952689383</v>
-      </c>
-      <c r="E8">
-        <v>0.17542026998756599</v>
-      </c>
-      <c r="F8">
-        <v>0.177148983396855</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="1025" width="8.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>0.187584762780894</v>
-      </c>
-      <c r="C2">
-        <v>0.183913941745215</v>
-      </c>
-      <c r="D2">
-        <v>0.18736881854304499</v>
-      </c>
-      <c r="E2">
-        <v>0.186517544122867</v>
-      </c>
-      <c r="F2">
-        <v>0.18925165019502699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0.183437368874036</v>
-      </c>
-      <c r="C3">
-        <v>0.184867528495547</v>
-      </c>
-      <c r="D3">
-        <v>0.184886388222151</v>
-      </c>
-      <c r="E3">
-        <v>0.18636145806401699</v>
-      </c>
-      <c r="F3">
-        <v>0.187018971343796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0.187584762780894</v>
-      </c>
-      <c r="C4">
-        <v>0.18212909111493</v>
-      </c>
-      <c r="D4">
-        <v>0.17215285188125401</v>
-      </c>
-      <c r="E4">
-        <v>0.166583150427348</v>
-      </c>
-      <c r="F4">
-        <v>0.176561751296994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0.187017442338625</v>
-      </c>
-      <c r="C5">
-        <v>0.151851561627277</v>
-      </c>
-      <c r="D5">
-        <v>0.160172186695205</v>
-      </c>
-      <c r="E5">
-        <v>0.14987348479905599</v>
-      </c>
-      <c r="F5">
-        <v>0.15603234684355999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.18704149960373101</v>
-      </c>
-      <c r="C6">
-        <v>0.18726708502171299</v>
-      </c>
-      <c r="D6">
-        <v>0.187901440313405</v>
-      </c>
-      <c r="E6">
-        <v>0.188871546723346</v>
-      </c>
-      <c r="F6">
-        <v>0.19127822609365899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0.18704149960373101</v>
-      </c>
-      <c r="C7">
-        <v>0.187252570171211</v>
-      </c>
-      <c r="D7">
-        <v>0.18795194982380201</v>
-      </c>
-      <c r="E7">
-        <v>0.18903060333132499</v>
-      </c>
-      <c r="F7">
-        <v>0.191622130523323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0.18578931152814501</v>
-      </c>
-      <c r="C8">
-        <v>0.18436233602458901</v>
-      </c>
-      <c r="D8">
-        <v>0.18726349559064701</v>
-      </c>
-      <c r="E8">
-        <v>0.185824071382964</v>
-      </c>
-      <c r="F8">
-        <v>0.18825249100736499</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E73:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W75" sqref="W75"/>
+    <sheetView tabSelected="1" topLeftCell="S39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V74" sqref="V74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10934,964 +10333,855 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="C43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="31"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="1026" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="30">
+        <v>0.188066057041676</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="30">
+        <v>0.182684390778976</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="30">
+        <v>0.175812402819809</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="30">
+        <v>0.17828686729040399</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="30">
+        <v>0.182902784085062</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="30">
+        <v>0.18623910113212699</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0.173263479898808</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="30">
+        <v>0.187966818110715</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="30">
+        <v>0.18534561275272299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="30">
+        <v>0.182058412963292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="30">
+        <v>0.18534561275272257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36">
+        <v>12</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0.18205841296329212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="40">
+        <f>MIN(C3:C13)</f>
+        <v>0.173263479898808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="42">
+        <f>MAX(C3:C13)</f>
+        <v>0.187966818110715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="45">
+        <f>AVERAGE(C3:C13)</f>
+        <v>0.18199671777708462</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F20" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="49">
+        <v>0.173263479898808</v>
+      </c>
+      <c r="G21" s="50">
+        <v>0.187966818110715</v>
+      </c>
+      <c r="H21" s="51">
+        <v>0.18199671777708462</v>
+      </c>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E22" s="16">
+        <v>0.18307979175405101</v>
+      </c>
+      <c r="F22" s="6">
+        <f>E22-F21</f>
+        <v>9.8163118552430095E-3</v>
+      </c>
+      <c r="G22" s="12">
+        <f>E22-G21</f>
+        <v>-4.8870263566639927E-3</v>
+      </c>
+      <c r="H22" s="13">
+        <f>E22-H21</f>
+        <v>1.0830739769663866E-3</v>
+      </c>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="28"/>
+      <c r="D23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0.17946693750478099</v>
+      </c>
+      <c r="F23" s="7">
+        <f>E23-F22</f>
+        <v>0.16965062564953798</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" ref="G23:G49" si="0">E23-G22</f>
+        <v>0.18435396386144498</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" ref="H23:H49" si="1">E23-H22</f>
+        <v>0.1783838635278146</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="28"/>
+      <c r="D24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0.181447731841577</v>
+      </c>
+      <c r="F24" s="7">
+        <f>E24-F23</f>
+        <v>1.1797106192039025E-2</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.906232019867977E-3</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="1"/>
+        <v>3.0638683137624023E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="28"/>
+      <c r="D25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0.14787171816387101</v>
+      </c>
+      <c r="F25" s="7">
+        <f>E25-F24</f>
+        <v>0.13607461197183199</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15077795018373899</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="1"/>
+        <v>0.14480784985010861</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="28"/>
+      <c r="D26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0.181540965244401</v>
+      </c>
+      <c r="F26" s="7">
+        <f>E26-F25</f>
+        <v>4.546635327256901E-2</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="0"/>
+        <v>3.0763015060662008E-2</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6733115394292387E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="28"/>
+      <c r="D27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0.181652172190825</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" ref="F27:F49" si="2">E27-F26</f>
+        <v>0.13618581891825599</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15088915713016299</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="1"/>
+        <v>0.14491905679653261</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="29"/>
+      <c r="D28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="18">
+        <v>0.177456033319558</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="2"/>
+        <v>4.1270214401302019E-2</v>
+      </c>
+      <c r="G28" s="14">
+        <f t="shared" si="0"/>
+        <v>2.6566876189395017E-2</v>
+      </c>
+      <c r="H28" s="15">
+        <f t="shared" si="1"/>
+        <v>3.2536976523025396E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="D29" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0.18848510770457499</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="2"/>
+        <v>0.14721489330327298</v>
+      </c>
+      <c r="G29" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16191823151517998</v>
+      </c>
+      <c r="H29" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1559481311815496</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="25"/>
+      <c r="D30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0.18287898046391099</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="2"/>
+        <v>3.5664087160638014E-2</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0960748948731012E-2</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6930849282361391E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="25"/>
+      <c r="D31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="17">
+        <v>0.17242504585479301</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="2"/>
+        <v>0.136760958694155</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="0"/>
+        <v>0.151464296906062</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="1"/>
+        <v>0.14549419657243162</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="25"/>
+      <c r="D32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="17">
+        <v>0.12910064264972601</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="2"/>
+        <v>-7.6603160444289886E-3</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.2363654256335991E-2</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.6393553922705612E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="25"/>
+      <c r="D33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0.19316912640169001</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="2"/>
+        <v>0.200829442446119</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.215532780658026</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="1"/>
+        <v>0.20956268032439562</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="25"/>
+      <c r="D34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="17">
+        <v>0.19328745738110101</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="2"/>
+        <v>-7.541985065017992E-3</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.2245323276924994E-2</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.6275222943294615E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="26"/>
+      <c r="D35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="18">
+        <v>0.19239245596826501</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="2"/>
+        <v>0.19993444103328301</v>
+      </c>
+      <c r="G35" s="14">
+        <f t="shared" si="0"/>
+        <v>0.21463777924519001</v>
+      </c>
+      <c r="H35" s="15">
+        <f t="shared" si="1"/>
+        <v>0.20866767891155963</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0.18416897108295999</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.5765469950323019E-2</v>
+      </c>
+      <c r="G36" s="12">
+        <f t="shared" si="0"/>
+        <v>-3.0468808162230021E-2</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" si="1"/>
+        <v>-2.4498707828599642E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="25"/>
+      <c r="D37" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="17">
+        <v>0.180508192141</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="2"/>
+        <v>0.19627366209132302</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="0"/>
+        <v>0.21097700030323002</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="1"/>
+        <v>0.20500689996959964</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="25"/>
+      <c r="D38" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="17">
+        <v>0.18035189375479699</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.5921768336526032E-2</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="0"/>
+        <v>-3.0625106548433034E-2</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.4655006214802655E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="25"/>
+      <c r="D39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="17">
+        <v>0.166806577041162</v>
+      </c>
+      <c r="F39" s="7">
+        <f t="shared" si="2"/>
+        <v>0.18272834537768803</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="0"/>
+        <v>0.19743168358959504</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" si="1"/>
+        <v>0.19146158325596466</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="25"/>
+      <c r="D40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="17">
+        <v>0.182223546410756</v>
+      </c>
+      <c r="F40" s="7">
+        <f t="shared" si="2"/>
+        <v>-5.0479896693203519E-4</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.5208137178839037E-2</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="1"/>
+        <v>-9.2380368452086581E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="25"/>
+      <c r="D41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="17">
+        <v>0.182388551634595</v>
+      </c>
+      <c r="F41" s="7">
+        <f t="shared" si="2"/>
+        <v>0.18289335060152703</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="0"/>
+        <v>0.19759668881343403</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="1"/>
+        <v>0.19162658847980366</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="25"/>
+      <c r="D42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="18">
+        <v>0.177148983396855</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" si="2"/>
+        <v>-5.7443672046720295E-3</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.0447705416579032E-2</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.4477605082948652E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="21" t="s">
         <v>17</v>
       </c>
+      <c r="D43" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16">
+        <v>0.18911952912531599</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="2"/>
+        <v>0.19486389632998802</v>
+      </c>
+      <c r="G43" s="12">
+        <f t="shared" si="0"/>
+        <v>0.20956723454189502</v>
+      </c>
+      <c r="H43" s="13">
+        <f t="shared" si="1"/>
+        <v>0.20359713420826464</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>0.188066057041676</v>
-      </c>
-      <c r="C2">
-        <v>0.182684390778976</v>
-      </c>
-      <c r="D2">
-        <v>0.175812402819809</v>
-      </c>
-      <c r="E2">
-        <v>0.17828686729040399</v>
-      </c>
-      <c r="F2">
-        <v>0.182902784085062</v>
-      </c>
-      <c r="G2">
-        <v>0.18623910113212699</v>
-      </c>
-      <c r="H2">
-        <v>0.173263479898808</v>
-      </c>
-      <c r="I2">
-        <v>0.187966818110715</v>
-      </c>
-      <c r="J2">
-        <v>0.18534561275272299</v>
-      </c>
-      <c r="K2">
-        <v>0.182058412963292</v>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="22"/>
+      <c r="D44" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="17">
+        <v>0.181710301074995</v>
+      </c>
+      <c r="F44" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.3153595254993017E-2</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.7856933466900019E-2</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.188683313326964E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="22"/>
+      <c r="D45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="17">
+        <v>0.18398886232845499</v>
+      </c>
+      <c r="F45" s="7">
+        <f t="shared" si="2"/>
+        <v>0.19714245758344801</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" si="0"/>
+        <v>0.21184579579535501</v>
+      </c>
+      <c r="H45" s="4">
+        <f t="shared" si="1"/>
+        <v>0.20587569546172463</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>0.17555668497295099</v>
-      </c>
-      <c r="F4">
-        <v>0.18025418749920399</v>
-      </c>
-      <c r="G4">
-        <v>0.18155190618612199</v>
-      </c>
-      <c r="H4">
-        <v>0.18925165019502699</v>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="22"/>
+      <c r="D46" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="17">
+        <v>0.15152726106055101</v>
+      </c>
+      <c r="F46" s="7">
+        <f t="shared" si="2"/>
+        <v>-4.5615196522897E-2</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="0"/>
+        <v>-6.0318534734804002E-2</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="1"/>
+        <v>-5.4348434401173623E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>0.188066057041676</v>
-      </c>
-      <c r="E5">
-        <v>0.16993293946316701</v>
-      </c>
-      <c r="F5">
-        <v>0.18046270338960499</v>
-      </c>
-      <c r="G5">
-        <v>0.176887106811425</v>
-      </c>
-      <c r="H5">
-        <v>0.187018971343796</v>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="22"/>
+      <c r="D47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="17">
+        <v>0.19016000387833901</v>
+      </c>
+      <c r="F47" s="7">
+        <f t="shared" si="2"/>
+        <v>0.23577520040123601</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25047853861314301</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" si="1"/>
+        <v>0.24450843827951263</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>0.182684390778976</v>
-      </c>
-      <c r="E6">
-        <v>0.174972301867346</v>
-      </c>
-      <c r="F6">
-        <v>0.182939901750757</v>
-      </c>
-      <c r="G6">
-        <v>0.17572523768588599</v>
-      </c>
-      <c r="H6">
-        <v>0.176561751296994</v>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="22"/>
+      <c r="D48" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="17">
+        <v>0.19088439149543401</v>
+      </c>
+      <c r="F48" s="7">
+        <f t="shared" si="2"/>
+        <v>-4.4890808905801993E-2</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="0"/>
+        <v>-5.9594147117708995E-2</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" si="1"/>
+        <v>-5.3624046784078616E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>0.175812402819809</v>
-      </c>
-      <c r="E7">
-        <v>0.144156336183278</v>
-      </c>
-      <c r="F7">
-        <v>0.14477993630390901</v>
-      </c>
-      <c r="G7">
-        <v>0.153825504965654</v>
-      </c>
-      <c r="H7">
-        <v>0.15603234684355999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>0.17828686729040399</v>
-      </c>
-      <c r="E8">
-        <v>0.180531700092744</v>
-      </c>
-      <c r="F8">
-        <v>0.19279901590111101</v>
-      </c>
-      <c r="G8">
-        <v>0.181199240091517</v>
-      </c>
-      <c r="H8">
-        <v>0.19127822609365899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>0.182902784085062</v>
-      </c>
-      <c r="E9">
-        <v>0.18063535367245101</v>
-      </c>
-      <c r="F9">
-        <v>0.19289780400307799</v>
-      </c>
-      <c r="G9">
-        <v>0.18133578789243601</v>
-      </c>
-      <c r="H9">
-        <v>0.191622130523323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>0.18623910113212699</v>
-      </c>
-      <c r="E10">
-        <v>0.17777603817204499</v>
-      </c>
-      <c r="F10">
-        <v>0.19267527513691901</v>
-      </c>
-      <c r="G10">
-        <v>0.177148983396855</v>
-      </c>
-      <c r="H10">
+    <row r="49" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="23"/>
+      <c r="D49" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="18">
         <v>0.18825249100736499</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>0.173263479898808</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12">
-        <v>0.187966818110715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>0.18534561275272299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>0.182058412963292</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
-        <f>MIN(B5:B14)</f>
-        <v>0.173263479898808</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17">
-        <f>MAX(B5:B15)</f>
-        <v>0.188066057041676</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18">
-        <f>AVERAGE(B5:B14)</f>
-        <v>0.1822625926873592</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20">
-        <v>0.173263479898808</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>0.188066057041676</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>0.1822625926873592</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23">
-        <v>0.173263479898808</v>
-      </c>
-      <c r="F23">
-        <v>0.188066057041676</v>
-      </c>
-      <c r="G23">
-        <v>0.1822625926873592</v>
-      </c>
-      <c r="J23" s="21"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="17">
-        <v>0.17555668497295099</v>
-      </c>
-      <c r="E24" s="6">
-        <f>D24-E23</f>
-        <v>2.2932050741429899E-3</v>
-      </c>
-      <c r="F24" s="13">
-        <f>D24-F23</f>
-        <v>-1.2509372068725017E-2</v>
-      </c>
-      <c r="G24" s="14">
-        <f>D24-G23</f>
-        <v>-6.7059077144082102E-3</v>
-      </c>
-      <c r="J24" s="21"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
-      <c r="C25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="18">
-        <v>0.16993293946316701</v>
-      </c>
-      <c r="E25" s="7">
-        <f>D25-E24</f>
-        <v>0.16763973438902402</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" ref="F25:F51" si="0">D25-F24</f>
-        <v>0.18244231153189203</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" ref="G25:G51" si="1">D25-G24</f>
-        <v>0.17663884717757522</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
-      <c r="C26" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="18">
-        <v>0.174972301867346</v>
-      </c>
-      <c r="E26" s="7">
-        <f>D26-E25</f>
-        <v>7.3325674783219774E-3</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="F49" s="8">
+        <f t="shared" si="2"/>
+        <v>0.23314329991316698</v>
+      </c>
+      <c r="G49" s="14">
         <f t="shared" si="0"/>
-        <v>-7.470009664546029E-3</v>
-      </c>
-      <c r="G26" s="4">
+        <v>0.24784663812507399</v>
+      </c>
+      <c r="H49" s="15">
         <f t="shared" si="1"/>
-        <v>-1.6665453102292227E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
-      <c r="C27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="18">
-        <v>0.144156336183278</v>
-      </c>
-      <c r="E27" s="7">
-        <f>D27-E26</f>
-        <v>0.13682376870495602</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.15162634584782403</v>
-      </c>
-      <c r="G27" s="4">
-        <f t="shared" si="1"/>
-        <v>0.14582288149350722</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
-      <c r="C28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="18">
-        <v>0.180531700092744</v>
-      </c>
-      <c r="E28" s="7">
-        <f>D28-E27</f>
-        <v>4.3707931387787974E-2</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" si="0"/>
-        <v>2.8905354244919967E-2</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" si="1"/>
-        <v>3.4708818599236774E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="29"/>
-      <c r="C29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="18">
-        <v>0.18063535367245101</v>
-      </c>
-      <c r="E29" s="7">
-        <f t="shared" ref="E29:E51" si="2">D29-E28</f>
-        <v>0.13692742228466304</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.15172999942753104</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="1"/>
-        <v>0.14592653507321424</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="30"/>
-      <c r="C30" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="19">
-        <v>0.17777603817204499</v>
-      </c>
-      <c r="E30" s="8">
-        <f t="shared" si="2"/>
-        <v>4.084861588738195E-2</v>
-      </c>
-      <c r="F30" s="15">
-        <f t="shared" si="0"/>
-        <v>2.6046038744513944E-2</v>
-      </c>
-      <c r="G30" s="16">
-        <f t="shared" si="1"/>
-        <v>3.184950309883075E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="17">
-        <v>0.18025418749920399</v>
-      </c>
-      <c r="E31" s="6">
-        <f t="shared" si="2"/>
-        <v>0.13940557161182204</v>
-      </c>
-      <c r="F31" s="13">
-        <f t="shared" si="0"/>
-        <v>0.15420814875469005</v>
-      </c>
-      <c r="G31" s="14">
-        <f t="shared" si="1"/>
-        <v>0.14840468440037324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="26"/>
-      <c r="C32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="18">
-        <v>0.18046270338960499</v>
-      </c>
-      <c r="E32" s="7">
-        <f t="shared" si="2"/>
-        <v>4.1057131777782946E-2</v>
-      </c>
-      <c r="F32" s="5">
-        <f t="shared" si="0"/>
-        <v>2.6254554634914939E-2</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" si="1"/>
-        <v>3.2058018989231746E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="26"/>
-      <c r="C33" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="18">
-        <v>0.182939901750757</v>
-      </c>
-      <c r="E33" s="7">
-        <f t="shared" si="2"/>
-        <v>0.14188276997297405</v>
-      </c>
-      <c r="F33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.15668534711584206</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" si="1"/>
-        <v>0.15088188276152525</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="26"/>
-      <c r="C34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="18">
-        <v>0.14477993630390901</v>
-      </c>
-      <c r="E34" s="7">
-        <f t="shared" si="2"/>
-        <v>2.8971663309349527E-3</v>
-      </c>
-      <c r="F34" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.1905410811933054E-2</v>
-      </c>
-      <c r="G34" s="4">
-        <f t="shared" si="1"/>
-        <v>-6.1019464576162474E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="26"/>
-      <c r="C35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="18">
-        <v>0.19279901590111101</v>
-      </c>
-      <c r="E35" s="7">
-        <f t="shared" si="2"/>
-        <v>0.18990184957017606</v>
-      </c>
-      <c r="F35" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20470442671304406</v>
-      </c>
-      <c r="G35" s="4">
-        <f t="shared" si="1"/>
-        <v>0.19890096235872726</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="26"/>
-      <c r="C36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="18">
-        <v>0.19289780400307799</v>
-      </c>
-      <c r="E36" s="7">
-        <f t="shared" si="2"/>
-        <v>2.9959544329019316E-3</v>
-      </c>
-      <c r="F36" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.1806622709966075E-2</v>
-      </c>
-      <c r="G36" s="4">
-        <f t="shared" si="1"/>
-        <v>-6.0031583556492685E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="27"/>
-      <c r="C37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="19">
-        <v>0.19267527513691901</v>
-      </c>
-      <c r="E37" s="8">
-        <f t="shared" si="2"/>
-        <v>0.18967932070401708</v>
-      </c>
-      <c r="F37" s="15">
-        <f t="shared" si="0"/>
-        <v>0.20448189784688509</v>
-      </c>
-      <c r="G37" s="16">
-        <f t="shared" si="1"/>
-        <v>0.19867843349256828</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="17">
-        <v>0.18155190618612199</v>
-      </c>
-      <c r="E38" s="6">
-        <f t="shared" si="2"/>
-        <v>-8.1274145178950874E-3</v>
-      </c>
-      <c r="F38" s="13">
-        <f t="shared" si="0"/>
-        <v>-2.2929991660763094E-2</v>
-      </c>
-      <c r="G38" s="14">
-        <f t="shared" si="1"/>
-        <v>-1.7126527306446288E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="26"/>
-      <c r="C39" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="18">
-        <v>0.176887106811425</v>
-      </c>
-      <c r="E39" s="7">
-        <f t="shared" si="2"/>
-        <v>0.18501452132932009</v>
-      </c>
-      <c r="F39" s="5">
-        <f t="shared" si="0"/>
-        <v>0.19981709847218809</v>
-      </c>
-      <c r="G39" s="4">
-        <f t="shared" si="1"/>
-        <v>0.19401363411787129</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="26"/>
-      <c r="C40" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="18">
-        <v>0.17572523768588599</v>
-      </c>
-      <c r="E40" s="7">
-        <f t="shared" si="2"/>
-        <v>-9.2892836434340931E-3</v>
-      </c>
-      <c r="F40" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.4091860786302099E-2</v>
-      </c>
-      <c r="G40" s="4">
-        <f t="shared" si="1"/>
-        <v>-1.8288396431985293E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="26"/>
-      <c r="C41" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="18">
-        <v>0.153825504965654</v>
-      </c>
-      <c r="E41" s="7">
-        <f t="shared" si="2"/>
-        <v>0.1631147886090881</v>
-      </c>
-      <c r="F41" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1779173657519561</v>
-      </c>
-      <c r="G41" s="4">
-        <f t="shared" si="1"/>
-        <v>0.1721139013976393</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="26"/>
-      <c r="C42" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="18">
-        <v>0.181199240091517</v>
-      </c>
-      <c r="E42" s="7">
-        <f t="shared" si="2"/>
-        <v>1.8084451482428904E-2</v>
-      </c>
-      <c r="F42" s="5">
-        <f t="shared" si="0"/>
-        <v>3.2818743395608974E-3</v>
-      </c>
-      <c r="G42" s="4">
-        <f t="shared" si="1"/>
-        <v>9.0853386938777037E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="26"/>
-      <c r="C43" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="18">
-        <v>0.18133578789243601</v>
-      </c>
-      <c r="E43" s="7">
-        <f t="shared" si="2"/>
-        <v>0.16325133641000711</v>
-      </c>
-      <c r="F43" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17805391355287511</v>
-      </c>
-      <c r="G43" s="4">
-        <f t="shared" si="1"/>
-        <v>0.17225044919855831</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="26"/>
-      <c r="C44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="19">
-        <v>0.177148983396855</v>
-      </c>
-      <c r="E44" s="7">
-        <f t="shared" si="2"/>
-        <v>1.3897646986847895E-2</v>
-      </c>
-      <c r="F44" s="5">
-        <f t="shared" si="0"/>
-        <v>-9.0493015602011173E-4</v>
-      </c>
-      <c r="G44" s="4">
-        <f t="shared" si="1"/>
-        <v>4.8985341982966946E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="17">
-        <v>0.18925165019502699</v>
-      </c>
-      <c r="E45" s="6">
-        <f t="shared" si="2"/>
-        <v>0.17535400320817909</v>
-      </c>
-      <c r="F45" s="13">
-        <f t="shared" si="0"/>
-        <v>0.1901565803510471</v>
-      </c>
-      <c r="G45" s="14">
-        <f t="shared" si="1"/>
-        <v>0.18435311599673029</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="23"/>
-      <c r="C46" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="18">
-        <v>0.187018971343796</v>
-      </c>
-      <c r="E46" s="7">
-        <f t="shared" si="2"/>
-        <v>1.1664968135616904E-2</v>
-      </c>
-      <c r="F46" s="5">
-        <f t="shared" si="0"/>
-        <v>-3.137609007251102E-3</v>
-      </c>
-      <c r="G46" s="4">
-        <f t="shared" si="1"/>
-        <v>2.6658553470657043E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="23"/>
-      <c r="C47" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="18">
-        <v>0.176561751296994</v>
-      </c>
-      <c r="E47" s="7">
-        <f t="shared" si="2"/>
-        <v>0.1648967831613771</v>
-      </c>
-      <c r="F47" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1796993603042451</v>
-      </c>
-      <c r="G47" s="4">
-        <f t="shared" si="1"/>
-        <v>0.1738958959499283</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="23"/>
-      <c r="C48" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="18">
-        <v>0.15603234684355999</v>
-      </c>
-      <c r="E48" s="7">
-        <f t="shared" si="2"/>
-        <v>-8.8644363178171093E-3</v>
-      </c>
-      <c r="F48" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.3667013460685116E-2</v>
-      </c>
-      <c r="G48" s="4">
-        <f t="shared" si="1"/>
-        <v>-1.7863549106368309E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="23"/>
-      <c r="C49" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="18">
-        <v>0.19127822609365899</v>
-      </c>
-      <c r="E49" s="7">
-        <f t="shared" si="2"/>
-        <v>0.2001426624114761</v>
-      </c>
-      <c r="F49" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21494523955434411</v>
-      </c>
-      <c r="G49" s="4">
-        <f t="shared" si="1"/>
-        <v>0.2091417752000273</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="23"/>
-      <c r="C50" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="18">
-        <v>0.191622130523323</v>
-      </c>
-      <c r="E50" s="7">
-        <f t="shared" si="2"/>
-        <v>-8.5205318881531045E-3</v>
-      </c>
-      <c r="F50" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.3323109031021111E-2</v>
-      </c>
-      <c r="G50" s="4">
-        <f t="shared" si="1"/>
-        <v>-1.7519644676704305E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="24"/>
-      <c r="C51" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="19">
-        <v>0.18825249100736499</v>
-      </c>
-      <c r="E51" s="8">
-        <f t="shared" si="2"/>
-        <v>0.1967730228955181</v>
-      </c>
-      <c r="F51" s="15">
-        <f t="shared" si="0"/>
-        <v>0.2115756000383861</v>
-      </c>
-      <c r="G51" s="16">
-        <f t="shared" si="1"/>
-        <v>0.2057721356840693</v>
+        <v>0.24187653779144361</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="C22:C28"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/eval/retrievalFusionMAP.xlsx
+++ b/eval/retrievalFusionMAP.xlsx
@@ -466,6 +466,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -493,28 +515,6 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -884,11 +884,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="433583168"/>
-        <c:axId val="433587872"/>
+        <c:axId val="436207104"/>
+        <c:axId val="436202400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433583168"/>
+        <c:axId val="436207104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -987,7 +987,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433587872"/>
+        <c:crossAx val="436202400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -995,7 +995,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433587872"/>
+        <c:axId val="436202400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +1102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433583168"/>
+        <c:crossAx val="436207104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1536,11 +1536,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="433585520"/>
-        <c:axId val="433583560"/>
+        <c:axId val="436200048"/>
+        <c:axId val="436205928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433585520"/>
+        <c:axId val="436200048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,7 +1639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433583560"/>
+        <c:crossAx val="436205928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1647,7 +1647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433583560"/>
+        <c:axId val="436205928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,7 +1754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433585520"/>
+        <c:crossAx val="436200048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2188,11 +2188,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="433582384"/>
-        <c:axId val="433591008"/>
+        <c:axId val="436200440"/>
+        <c:axId val="436202792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433582384"/>
+        <c:axId val="436200440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2298,7 +2298,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433591008"/>
+        <c:crossAx val="436202792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2306,7 +2306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433591008"/>
+        <c:axId val="436202792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,7 +2413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433582384"/>
+        <c:crossAx val="436200440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2847,11 +2847,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="433591792"/>
-        <c:axId val="433581992"/>
+        <c:axId val="436201616"/>
+        <c:axId val="436200832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433591792"/>
+        <c:axId val="436201616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2955,7 +2955,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433581992"/>
+        <c:crossAx val="436200832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2963,7 +2963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433581992"/>
+        <c:axId val="436200832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3075,7 +3075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433591792"/>
+        <c:crossAx val="436201616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3509,11 +3509,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="433586696"/>
-        <c:axId val="433584736"/>
+        <c:axId val="436203968"/>
+        <c:axId val="436207496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433586696"/>
+        <c:axId val="436203968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3556,7 +3556,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433584736"/>
+        <c:crossAx val="436207496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3564,7 +3564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433584736"/>
+        <c:axId val="436207496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -3672,7 +3672,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433586696"/>
+        <c:crossAx val="436203968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4072,11 +4072,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="433590224"/>
-        <c:axId val="433583952"/>
+        <c:axId val="436202008"/>
+        <c:axId val="435853680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433590224"/>
+        <c:axId val="436202008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4119,7 +4119,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433583952"/>
+        <c:crossAx val="435853680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4127,7 +4127,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433583952"/>
+        <c:axId val="435853680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -4179,7 +4179,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433590224"/>
+        <c:crossAx val="436202008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4586,11 +4586,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="433588656"/>
-        <c:axId val="433581208"/>
+        <c:axId val="435849760"/>
+        <c:axId val="435850152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433588656"/>
+        <c:axId val="435849760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4689,7 +4689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433581208"/>
+        <c:crossAx val="435850152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4697,7 +4697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433581208"/>
+        <c:axId val="435850152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4804,7 +4804,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433588656"/>
+        <c:crossAx val="435849760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5204,11 +5204,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="433589048"/>
-        <c:axId val="433589440"/>
+        <c:axId val="435852896"/>
+        <c:axId val="435852504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433589048"/>
+        <c:axId val="435852896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5307,7 +5307,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433589440"/>
+        <c:crossAx val="435852504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5315,7 +5315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433589440"/>
+        <c:axId val="435852504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -5367,7 +5367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433589048"/>
+        <c:crossAx val="435852896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10313,8 +10313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E73:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V74" sqref="V74"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AM18" sqref="AM18:AM19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10337,13 +10337,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
@@ -10361,19 +10361,19 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="32"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="1"/>
       <c r="H1" s="19"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="21">
         <v>0.188066057041676</v>
       </c>
       <c r="D2" s="3"/>
@@ -10381,13 +10381,13 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="21">
         <v>0.182684390778976</v>
       </c>
       <c r="D3" s="3"/>
@@ -10395,13 +10395,13 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="21">
         <v>0.175812402819809</v>
       </c>
       <c r="D4" s="3"/>
@@ -10409,13 +10409,13 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="21">
         <v>0.17828686729040399</v>
       </c>
       <c r="D5" s="3"/>
@@ -10423,13 +10423,13 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="21">
         <v>0.182902784085062</v>
       </c>
       <c r="D6" s="3"/>
@@ -10437,13 +10437,13 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="21">
         <v>0.18623910113212699</v>
       </c>
       <c r="D7" s="3"/>
@@ -10451,13 +10451,13 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="21">
         <v>0.173263479898808</v>
       </c>
       <c r="D8" s="3"/>
@@ -10465,13 +10465,13 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="21">
         <v>0.187966818110715</v>
       </c>
       <c r="D9" s="3"/>
@@ -10479,88 +10479,88 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="21">
         <v>0.18534561275272299</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="21">
         <v>0.182058412963292</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="21">
         <v>0.18534561275272257</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36">
+      <c r="A13" s="27">
         <v>12</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="27">
         <v>0.18205841296329212</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="31">
         <f>MIN(C3:C13)</f>
         <v>0.173263479898808</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="35" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="33">
         <f>MAX(C3:C13)</f>
         <v>0.187966818110715</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="36">
         <f>AVERAGE(C3:C13)</f>
         <v>0.18199671777708462</v>
       </c>
     </row>
     <row r="19" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="48" t="s">
+      <c r="H20" s="39" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10568,25 +10568,25 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="49">
+      <c r="F21" s="40">
         <v>0.173263479898808</v>
       </c>
-      <c r="G21" s="50">
+      <c r="G21" s="41">
         <v>0.187966818110715</v>
       </c>
-      <c r="H21" s="51">
+      <c r="H21" s="42">
         <v>0.18199671777708462</v>
       </c>
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="49" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="22">
         <v>0.18307979175405101</v>
       </c>
       <c r="F22" s="6">
@@ -10604,11 +10604,11 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="28"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="22">
         <v>0.17946693750478099</v>
       </c>
       <c r="F23" s="7">
@@ -10625,11 +10625,11 @@
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="28"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="22">
         <v>0.181447731841577</v>
       </c>
       <c r="F24" s="7">
@@ -10646,11 +10646,11 @@
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="28"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="22">
         <v>0.14787171816387101</v>
       </c>
       <c r="F25" s="7">
@@ -10667,11 +10667,11 @@
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="28"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="22">
         <v>0.181540965244401</v>
       </c>
       <c r="F26" s="7">
@@ -10688,11 +10688,11 @@
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="28"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="22">
         <v>0.181652172190825</v>
       </c>
       <c r="F27" s="7">
@@ -10709,11 +10709,11 @@
       </c>
     </row>
     <row r="28" spans="3:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="29"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="22">
         <v>0.177456033319558</v>
       </c>
       <c r="F28" s="8">
@@ -10730,7 +10730,7 @@
       </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="46" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -10753,7 +10753,7 @@
       </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="25"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="9" t="s">
         <v>1</v>
       </c>
@@ -10774,7 +10774,7 @@
       </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="25"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="9" t="s">
         <v>2</v>
       </c>
@@ -10795,7 +10795,7 @@
       </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="25"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="9" t="s">
         <v>3</v>
       </c>
@@ -10816,7 +10816,7 @@
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="25"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="9" t="s">
         <v>4</v>
       </c>
@@ -10837,7 +10837,7 @@
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="25"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="9" t="s">
         <v>5</v>
       </c>
@@ -10858,7 +10858,7 @@
       </c>
     </row>
     <row r="35" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="26"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="11" t="s">
         <v>6</v>
       </c>
@@ -10879,13 +10879,13 @@
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="22">
         <v>0.18416897108295999</v>
       </c>
       <c r="F36" s="6">
@@ -10902,11 +10902,11 @@
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="25"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="22">
         <v>0.180508192141</v>
       </c>
       <c r="F37" s="7">
@@ -10923,11 +10923,11 @@
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="25"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="22">
         <v>0.18035189375479699</v>
       </c>
       <c r="F38" s="7">
@@ -10944,11 +10944,11 @@
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="25"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="22">
         <v>0.166806577041162</v>
       </c>
       <c r="F39" s="7">
@@ -10965,11 +10965,11 @@
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="25"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="22">
         <v>0.182223546410756</v>
       </c>
       <c r="F40" s="7">
@@ -10986,11 +10986,11 @@
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="25"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="22">
         <v>0.182388551634595</v>
       </c>
       <c r="F41" s="7">
@@ -11007,11 +11007,11 @@
       </c>
     </row>
     <row r="42" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="25"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="22">
         <v>0.177148983396855</v>
       </c>
       <c r="F42" s="7">
@@ -11028,13 +11028,13 @@
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="43" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="22">
         <v>0.18911952912531599</v>
       </c>
       <c r="F43" s="6">
@@ -11051,11 +11051,11 @@
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="22"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="22">
         <v>0.181710301074995</v>
       </c>
       <c r="F44" s="7">
@@ -11072,11 +11072,11 @@
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="22"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="22">
         <v>0.18398886232845499</v>
       </c>
       <c r="F45" s="7">
@@ -11093,11 +11093,11 @@
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="22"/>
+      <c r="C46" s="44"/>
       <c r="D46" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="22">
         <v>0.15152726106055101</v>
       </c>
       <c r="F46" s="7">
@@ -11114,11 +11114,11 @@
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="22"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="22">
         <v>0.19016000387833901</v>
       </c>
       <c r="F47" s="7">
@@ -11135,11 +11135,11 @@
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="22"/>
+      <c r="C48" s="44"/>
       <c r="D48" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="22">
         <v>0.19088439149543401</v>
       </c>
       <c r="F48" s="7">
@@ -11156,11 +11156,11 @@
       </c>
     </row>
     <row r="49" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="23"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="22">
         <v>0.18825249100736499</v>
       </c>
       <c r="F49" s="8">
